--- a/DE_Mode_3.xlsx
+++ b/DE_Mode_3.xlsx
@@ -1000,7 +1000,7 @@
     <t>NKD</t>
   </si>
   <si>
-    <t>Bindlach,</t>
+    <t>Bindlach</t>
   </si>
   <si>
     <t>Alexander Schmökel</t>
